--- a/data_insertion/payment.xlsx
+++ b/data_insertion/payment.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,14 +384,14 @@
         <v>1</v>
       </c>
       <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>5</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
       <c r="E1" t="str">
-        <f>CONCATENATE("insert into [dbo].[payment] values(",A1,",",B1,",",C1,",",D1,")")</f>
-        <v>insert into [dbo].[payment] values(1,1,5,1)</v>
+        <f>CONCATENATE("insert into [dbo].[payment] values(",B1,",",C1,",",D1,")")</f>
+        <v>insert into [dbo].[payment] values(1,1,5)</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -405,14 +405,14 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E10" si="0">CONCATENATE("insert into [dbo].[payment] values(",A2,",",B2,",",C2,",",D2,")")</f>
-        <v>insert into [dbo].[payment] values(2,1,20,2)</v>
+        <f t="shared" ref="E2:E10" si="0">CONCATENATE("insert into [dbo].[payment] values(",B2,",",C2,",",D2,")")</f>
+        <v>insert into [dbo].[payment] values(1,2,20)</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -426,14 +426,14 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[payment] values(3,1,30,3)</v>
+        <v>insert into [dbo].[payment] values(1,3,30)</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -447,14 +447,14 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[payment] values(4,1,20,4)</v>
+        <v>insert into [dbo].[payment] values(1,4,20)</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -468,14 +468,14 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[payment] values(5,1,20,5)</v>
+        <v>insert into [dbo].[payment] values(1,5,20)</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -489,14 +489,14 @@
         <v>1</v>
       </c>
       <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[payment] values(6,1,30,6)</v>
+        <v>insert into [dbo].[payment] values(1,6,30)</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -510,14 +510,14 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[payment] values(7,1,5,7)</v>
+        <v>insert into [dbo].[payment] values(1,7,5)</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -531,14 +531,14 @@
         <v>1</v>
       </c>
       <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[payment] values(8,1,30,8)</v>
+        <v>insert into [dbo].[payment] values(1,8,30)</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -552,14 +552,14 @@
         <v>1</v>
       </c>
       <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>30</v>
       </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[payment] values(9,1,30,9)</v>
+        <v>insert into [dbo].[payment] values(1,9,30)</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -573,14 +573,14 @@
         <v>1</v>
       </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[payment] values(10,1,5,10)</v>
+        <v>insert into [dbo].[payment] values(1,10,5)</v>
       </c>
       <c r="G10">
         <v>17</v>
